--- a/output/UNIMAR HABIBLER.xlsx
+++ b/output/UNIMAR HABIBLER.xlsx
@@ -444,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>51.94</v>
+        <v>-51.94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>52.04</v>
+        <v>-52.04</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>52.14</v>
+        <v>-52.14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>50.14</v>
+        <v>-50.14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>50.06</v>
+        <v>-50.06</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>49.97</v>
+        <v>-49.97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>49.89</v>
+        <v>-49.89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>208.89</v>
+        <v>-208.89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
